--- a/103084_High_Performance_Computing/assignment_2/a2_omp.xlsx
+++ b/103084_High_Performance_Computing/assignment_2/a2_omp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Masters_Degree_in_Computer_Engineering\103084_High_Performance_Computing\assignment_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordilazo/git/high_performance_computing_103084/assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3812586-D59C-4EA2-9D02-97D0D91D3FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100CC9-62BD-634E-BB6E-62CB69770EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3DE4C77-3FC9-9244-9A20-D284DC5D6663}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{F3DE4C77-3FC9-9244-9A20-D284DC5D6663}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Sequencial</t>
   </si>
   <si>
-    <t>Execution time (s)</t>
-  </si>
-  <si>
     <t>6000x4000 (px)</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>600x400 (px)</t>
+  </si>
+  <si>
+    <t>Execution time (s) - OMP</t>
   </si>
 </sst>
 </file>
@@ -180,9 +180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -217,7 +217,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -296,7 +296,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -310,6 +310,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Sequencial</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -351,16 +354,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6000x4000 (px)</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000x4000 (px)</c:v>
+                  <c:v>3000X2000 (px)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000X2000 (px)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>600x400 (px)</c:v>
                 </c:pt>
               </c:strCache>
@@ -368,20 +371,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>453.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>453.69</c:v>
+                  <c:v>113.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>4.55</c:v>
                 </c:pt>
               </c:numCache>
@@ -396,6 +396,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>2 omp</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -437,16 +440,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6000x4000 (px)</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000x4000 (px)</c:v>
+                  <c:v>3000X2000 (px)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000X2000 (px)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>600x400 (px)</c:v>
                 </c:pt>
               </c:strCache>
@@ -454,20 +457,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -482,6 +482,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>4 omp</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -523,16 +526,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6000x4000 (px)</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000x4000 (px)</c:v>
+                  <c:v>3000X2000 (px)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000X2000 (px)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>600x400 (px)</c:v>
                 </c:pt>
               </c:strCache>
@@ -540,20 +543,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Sheet1!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -568,6 +568,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>8 omp</c:v>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -609,16 +612,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6000x4000 (px)</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000x4000 (px)</c:v>
+                  <c:v>3000X2000 (px)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3000X2000 (px)</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>600x400 (px)</c:v>
                 </c:pt>
               </c:strCache>
@@ -626,20 +629,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Sheet1!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>172</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -704,7 +704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="939303952"/>
@@ -762,7 +762,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="939456080"/>
@@ -803,7 +803,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -844,7 +844,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -858,7 +858,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -932,7 +932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1216,7 +1216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1277457727"/>
@@ -1274,7 +1274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096575136"/>
@@ -1315,7 +1315,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1363,7 +1363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1377,7 +1377,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1451,7 +1451,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1735,7 +1735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="967556063"/>
@@ -1793,7 +1793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="996999695"/>
@@ -1834,7 +1834,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1882,7 +1882,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3914,43 +3914,43 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>453.69</v>
@@ -3965,9 +3965,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>113.42</v>
@@ -3982,9 +3982,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>4.55</v>
@@ -3999,21 +3999,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -4027,9 +4027,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
         <f xml:space="preserve"> $B$3/C3</f>
@@ -4044,9 +4044,9 @@
         <v>2.6377325581395348</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
         <f xml:space="preserve"> $B$4/C4</f>
@@ -4062,9 +4062,9 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <f xml:space="preserve"> $B$5/C5</f>
@@ -4080,98 +4080,98 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8">
         <f>$B$3/($C$2*C3)</f>
         <v>0.67714925373134327</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <f>$B$3/(D2*D3)</f>
         <v>0.37807499999999999</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <f>$B$3/(E2*E3)</f>
         <v>0.32971656976744185</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8">
         <f>$B$4/($C$2*C4)</f>
         <v>0.68325301204819278</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f>$B$4/(D2*D4)</f>
         <v>0.37806666666666666</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f>$B$4/(E2*E4)</f>
         <v>0.32221590909090908</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8">
         <f>$B$5/($C$2*C5)</f>
         <v>0.7583333333333333</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f>$B$5/($D$2*D5)</f>
         <v>0.37916666666666665</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f>$B$5/($E$2*E5)</f>
         <v>0.28437499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
